--- a/Data SisTaBang/m_jalirjar.xlsx
+++ b/Data SisTaBang/m_jalirjar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X.UserZ\Documents\GitHub\MyDocs\Data SisTaBang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4455E765-7CF9-41D4-9DEE-0D8210B06399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56478D4F-96C2-48DA-94B1-C583C85C4BAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D11E0F0F-C1CD-49FA-BA45-80DFE5A80F1A}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="972">
   <si>
     <t>04.13.01.01.001</t>
   </si>
@@ -2944,6 +2938,9 @@
   </si>
   <si>
     <t>Jaringan Pipa Distribusi Tekanan Menengah Pipa Baja</t>
+  </si>
+  <si>
+    <t>Jalan Setapak</t>
   </si>
 </sst>
 </file>
@@ -3351,7 +3348,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683BEA12-8621-4474-A767-B8F30994C55E}">
   <dimension ref="A1:C506"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3807,7 +3806,9 @@
       <c r="B41" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="4"/>
+      <c r="C41" s="4" t="s">
+        <v>971</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
